--- a/Code/Results/Cases/Case_2_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.21876336711792</v>
+        <v>20.83674472605432</v>
       </c>
       <c r="C2">
-        <v>6.365483532274081</v>
+        <v>4.198158798761511</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.221462506189637</v>
+        <v>10.4585381436805</v>
       </c>
       <c r="F2">
-        <v>39.38107829546858</v>
+        <v>52.22094292985781</v>
       </c>
       <c r="G2">
-        <v>2.167955617404577</v>
+        <v>3.785843438166472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.281011439067828</v>
+        <v>11.17365468356914</v>
       </c>
       <c r="K2">
-        <v>13.71120975080502</v>
+        <v>17.07257350073929</v>
       </c>
       <c r="L2">
-        <v>5.817711127814206</v>
+        <v>10.62582993220316</v>
       </c>
       <c r="M2">
-        <v>11.66054704938854</v>
+        <v>18.35358354864752</v>
       </c>
       <c r="N2">
-        <v>18.52375092154855</v>
+        <v>26.44632024975537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.42035254342213</v>
+        <v>20.73335110595201</v>
       </c>
       <c r="C3">
-        <v>5.934314632985941</v>
+        <v>3.993447111785565</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.203490137663631</v>
+        <v>10.47485507400569</v>
       </c>
       <c r="F3">
-        <v>38.54240746094907</v>
+        <v>52.16192940296906</v>
       </c>
       <c r="G3">
-        <v>2.176541739454708</v>
+        <v>3.788922533938294</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.340945567089046</v>
+        <v>11.1861728118952</v>
       </c>
       <c r="K3">
-        <v>13.1148763820562</v>
+        <v>17.00259390014058</v>
       </c>
       <c r="L3">
-        <v>5.749590037866404</v>
+        <v>10.64191956995989</v>
       </c>
       <c r="M3">
-        <v>11.38260590139905</v>
+        <v>18.35875847176297</v>
       </c>
       <c r="N3">
-        <v>18.62845892141946</v>
+        <v>26.48034135725608</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.92259435351144</v>
+        <v>20.67468479941267</v>
       </c>
       <c r="C4">
-        <v>5.65665262056962</v>
+        <v>3.861381814877599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.194031624790068</v>
+        <v>10.48578777809036</v>
       </c>
       <c r="F4">
-        <v>38.04343795180584</v>
+        <v>52.1347714917972</v>
       </c>
       <c r="G4">
-        <v>2.181955930198193</v>
+        <v>3.790912269377101</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.378195435027559</v>
+        <v>11.1941768528121</v>
       </c>
       <c r="K4">
-        <v>12.74493061824975</v>
+        <v>16.96349212652104</v>
       </c>
       <c r="L4">
-        <v>5.710029559436602</v>
+        <v>10.65320288313991</v>
       </c>
       <c r="M4">
-        <v>11.21552036219435</v>
+        <v>18.36511274066833</v>
       </c>
       <c r="N4">
-        <v>18.69761634669894</v>
+        <v>26.50305678729655</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.71812770852939</v>
+        <v>20.65200868184787</v>
       </c>
       <c r="C5">
-        <v>5.540214440672803</v>
+        <v>3.805990676674718</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.190568523576817</v>
+        <v>10.49047335597363</v>
       </c>
       <c r="F5">
-        <v>37.84421165553943</v>
+        <v>52.12599297994711</v>
       </c>
       <c r="G5">
-        <v>2.184199506681709</v>
+        <v>3.791748124026398</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.393501361223384</v>
+        <v>11.19751879155303</v>
       </c>
       <c r="K5">
-        <v>12.59341867222001</v>
+        <v>16.94854189048558</v>
       </c>
       <c r="L5">
-        <v>5.694484554612933</v>
+        <v>10.65815450678797</v>
       </c>
       <c r="M5">
-        <v>11.14839514557334</v>
+        <v>18.36850216267884</v>
       </c>
       <c r="N5">
-        <v>18.72699037449308</v>
+        <v>26.51277287485996</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.68408658505676</v>
+        <v>20.64831820359602</v>
       </c>
       <c r="C6">
-        <v>5.520680297478451</v>
+        <v>3.796698935162083</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.190016967855439</v>
+        <v>10.49126532562661</v>
       </c>
       <c r="F6">
-        <v>37.81138093653611</v>
+        <v>52.12467369042445</v>
       </c>
       <c r="G6">
-        <v>2.184574342071825</v>
+        <v>3.791888430842258</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.396050894730394</v>
+        <v>11.19807857221283</v>
       </c>
       <c r="K6">
-        <v>12.56822088685612</v>
+        <v>16.94611917295941</v>
       </c>
       <c r="L6">
-        <v>5.691938288464731</v>
+        <v>10.65899808909213</v>
       </c>
       <c r="M6">
-        <v>11.13730917218089</v>
+        <v>18.36911332043462</v>
       </c>
       <c r="N6">
-        <v>18.73193901140866</v>
+        <v>26.51441397185611</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.91984304525389</v>
+        <v>20.67437397331194</v>
       </c>
       <c r="C7">
-        <v>5.655095658336876</v>
+        <v>3.86064111949742</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.193983342338635</v>
+        <v>10.48585003573072</v>
       </c>
       <c r="F7">
-        <v>38.04073436751793</v>
+        <v>52.13464382844851</v>
       </c>
       <c r="G7">
-        <v>2.181986035146524</v>
+        <v>3.790923440579641</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.378401327962646</v>
+        <v>11.1942215981459</v>
       </c>
       <c r="K7">
-        <v>12.742890054488</v>
+        <v>16.96328650323945</v>
       </c>
       <c r="L7">
-        <v>5.709817573240679</v>
+        <v>10.6532682302094</v>
       </c>
       <c r="M7">
-        <v>11.21461109985218</v>
+        <v>18.36515521109423</v>
       </c>
       <c r="N7">
-        <v>18.69800770961785</v>
+        <v>26.50318596179289</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.94518195841873</v>
+        <v>20.80010685203853</v>
       </c>
       <c r="C8">
-        <v>6.219473375479023</v>
+        <v>4.128912186526559</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.214935226865349</v>
+        <v>10.46397485311246</v>
       </c>
       <c r="F8">
-        <v>39.08864297698042</v>
+        <v>52.19871530908993</v>
       </c>
       <c r="G8">
-        <v>2.170887498258341</v>
+        <v>3.786884582670445</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.301591498172569</v>
+        <v>11.17790514347375</v>
       </c>
       <c r="K8">
-        <v>13.50649185613826</v>
+        <v>17.04764968107812</v>
       </c>
       <c r="L8">
-        <v>5.793756699519506</v>
+        <v>10.63108649283538</v>
       </c>
       <c r="M8">
-        <v>11.56401051814967</v>
+        <v>18.35470928413854</v>
       </c>
       <c r="N8">
-        <v>18.55882423101927</v>
+        <v>26.45767174382084</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.88651931938661</v>
+        <v>21.08396156982583</v>
       </c>
       <c r="C9">
-        <v>7.225720680004629</v>
+        <v>4.603433174476373</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.26878447973899</v>
+        <v>10.42830521406507</v>
       </c>
       <c r="F9">
-        <v>41.26651424044518</v>
+        <v>52.39605449867158</v>
       </c>
       <c r="G9">
-        <v>2.150180581544998</v>
+        <v>3.779747194375705</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.153895910403577</v>
+        <v>11.14841674348086</v>
       </c>
       <c r="K9">
-        <v>14.96657323421054</v>
+        <v>17.24317965691139</v>
       </c>
       <c r="L9">
-        <v>5.976034307310603</v>
+        <v>10.59870816646059</v>
       </c>
       <c r="M9">
-        <v>12.27476888953244</v>
+        <v>18.35937104318452</v>
       </c>
       <c r="N9">
-        <v>18.3260776651356</v>
+        <v>26.38290474222401</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.26068563546201</v>
+        <v>21.31388279895832</v>
       </c>
       <c r="C10">
-        <v>7.906964363356985</v>
+        <v>4.919594722430226</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.316522958381487</v>
+        <v>10.40647120552794</v>
       </c>
       <c r="F10">
-        <v>42.9370209171277</v>
+        <v>52.58423565487445</v>
       </c>
       <c r="G10">
-        <v>2.135503543004266</v>
+        <v>3.774975007556282</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.046190942574571</v>
+        <v>11.12826063485535</v>
       </c>
       <c r="K10">
-        <v>16.00898529051113</v>
+        <v>17.40432491106506</v>
       </c>
       <c r="L10">
-        <v>6.120302281198351</v>
+        <v>10.58166860688401</v>
       </c>
       <c r="M10">
-        <v>12.80920426607553</v>
+        <v>18.37803018091802</v>
       </c>
       <c r="N10">
-        <v>18.18201931119097</v>
+        <v>26.33679858265404</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.87323557932577</v>
+        <v>21.42279998331891</v>
       </c>
       <c r="C11">
-        <v>8.20509123849209</v>
+        <v>5.056226007739492</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.34011702358741</v>
+        <v>10.39748065898261</v>
       </c>
       <c r="F11">
-        <v>43.71159505461553</v>
+        <v>52.67908558108323</v>
       </c>
       <c r="G11">
-        <v>2.128916520589194</v>
+        <v>3.772905245426131</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.997126623237734</v>
+        <v>11.11941446675456</v>
       </c>
       <c r="K11">
-        <v>16.47562576240833</v>
+        <v>17.48122606063746</v>
       </c>
       <c r="L11">
-        <v>6.188091297112345</v>
+        <v>10.57537521543269</v>
       </c>
       <c r="M11">
-        <v>13.05440500954985</v>
+        <v>18.38980023915942</v>
       </c>
       <c r="N11">
-        <v>18.1229525088634</v>
+        <v>26.31773884583956</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.10332816151717</v>
+        <v>21.46463701435317</v>
       </c>
       <c r="C12">
-        <v>8.316366668406069</v>
+        <v>5.10692152648318</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.349331162180436</v>
+        <v>10.39421103032875</v>
       </c>
       <c r="F12">
-        <v>44.00698159297529</v>
+        <v>52.71631799541926</v>
       </c>
       <c r="G12">
-        <v>2.12643264644446</v>
+        <v>3.772135932184681</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.978515041103178</v>
+        <v>11.11611077179416</v>
       </c>
       <c r="K12">
-        <v>16.65119764063898</v>
+        <v>17.51084464105358</v>
       </c>
       <c r="L12">
-        <v>6.21406486528737</v>
+        <v>10.57320106509447</v>
       </c>
       <c r="M12">
-        <v>13.14751717196123</v>
+        <v>18.39472638698956</v>
       </c>
       <c r="N12">
-        <v>18.10157424234718</v>
+        <v>26.31079660842172</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.05385720822385</v>
+        <v>21.45560079186616</v>
       </c>
       <c r="C13">
-        <v>8.292472239994824</v>
+        <v>5.096049890085419</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.347334130586551</v>
+        <v>10.39490921244376</v>
       </c>
       <c r="F13">
-        <v>43.94327292347128</v>
+        <v>52.70824110104664</v>
       </c>
       <c r="G13">
-        <v>2.12696716745008</v>
+        <v>3.772300975703293</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.982525176878871</v>
+        <v>11.11682023325587</v>
       </c>
       <c r="K13">
-        <v>16.61343602908296</v>
+        <v>17.50444392620643</v>
       </c>
       <c r="L13">
-        <v>6.208457608904714</v>
+        <v>10.57366002159659</v>
       </c>
       <c r="M13">
-        <v>13.12745276790788</v>
+        <v>18.39364463913926</v>
       </c>
       <c r="N13">
-        <v>18.10613343205597</v>
+        <v>26.31227950045196</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.8922030643096</v>
+        <v>21.42623023986289</v>
       </c>
       <c r="C14">
-        <v>8.214277923453023</v>
+        <v>5.060417724194105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.340869413272433</v>
+        <v>10.39720896424488</v>
       </c>
       <c r="F14">
-        <v>43.73585525800794</v>
+        <v>52.68212245260258</v>
       </c>
       <c r="G14">
-        <v>2.128711975151072</v>
+        <v>3.772841664213271</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.995596212808127</v>
+        <v>11.11914174634312</v>
       </c>
       <c r="K14">
-        <v>16.49009308360308</v>
+        <v>17.48365293600003</v>
       </c>
       <c r="L14">
-        <v>6.190222117759777</v>
+        <v>10.57519216148374</v>
       </c>
       <c r="M14">
-        <v>13.06206038592277</v>
+        <v>18.39019613266411</v>
       </c>
       <c r="N14">
-        <v>18.1211735210942</v>
+        <v>26.31716218686271</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.79294095282054</v>
+        <v>21.40831619141796</v>
       </c>
       <c r="C15">
-        <v>8.166173177523868</v>
+        <v>5.038455817798059</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.33694630462325</v>
+        <v>10.39863518002711</v>
       </c>
       <c r="F15">
-        <v>43.60907522349859</v>
+        <v>52.66629479328189</v>
       </c>
       <c r="G15">
-        <v>2.129782010920498</v>
+        <v>3.773174732343479</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.003597740150072</v>
+        <v>11.12056974276875</v>
       </c>
       <c r="K15">
-        <v>16.41439324569814</v>
+        <v>17.47098209461943</v>
       </c>
       <c r="L15">
-        <v>6.179091653303574</v>
+        <v>10.57615784245591</v>
       </c>
       <c r="M15">
-        <v>13.02203850578781</v>
+        <v>18.38814482115831</v>
       </c>
       <c r="N15">
-        <v>18.13051668420861</v>
+        <v>26.32018882214009</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.22039527238883</v>
+        <v>21.30684933977117</v>
       </c>
       <c r="C16">
-        <v>7.887250326708455</v>
+        <v>4.910519951167465</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.3150196010663</v>
+        <v>10.40707766513961</v>
       </c>
       <c r="F16">
-        <v>42.88669194217716</v>
+        <v>52.57822180832845</v>
       </c>
       <c r="G16">
-        <v>2.135935624025332</v>
+        <v>3.775112299382185</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.049394187712342</v>
+        <v>11.12884522708915</v>
       </c>
       <c r="K16">
-        <v>15.97833241881162</v>
+        <v>17.3993699652056</v>
       </c>
       <c r="L16">
-        <v>6.115914939436941</v>
+        <v>10.58210917977705</v>
       </c>
       <c r="M16">
-        <v>12.79321814214545</v>
+        <v>18.37732678378936</v>
       </c>
       <c r="N16">
-        <v>18.18601449559965</v>
+        <v>26.33808270072514</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.86588476460172</v>
+        <v>21.24568981705479</v>
       </c>
       <c r="C17">
-        <v>7.713175057876354</v>
+        <v>4.830185795365987</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.30205557630719</v>
+        <v>10.41249770267147</v>
       </c>
       <c r="F17">
-        <v>42.44725312282635</v>
+        <v>52.52654986344795</v>
       </c>
       <c r="G17">
-        <v>2.139731986406776</v>
+        <v>3.776326777526106</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.077456161713903</v>
+        <v>11.13400448175493</v>
       </c>
       <c r="K17">
-        <v>15.70884448200794</v>
+        <v>17.35634571388492</v>
       </c>
       <c r="L17">
-        <v>6.077705988095664</v>
+        <v>10.58613311816498</v>
       </c>
       <c r="M17">
-        <v>12.65334673944882</v>
+        <v>18.37152891634504</v>
       </c>
       <c r="N17">
-        <v>18.22175685025858</v>
+        <v>26.34955029379727</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.66079827148718</v>
+        <v>21.21092139253827</v>
       </c>
       <c r="C18">
-        <v>7.611938422040752</v>
+        <v>4.783303159364151</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.294775093129275</v>
+        <v>10.41570384901737</v>
       </c>
       <c r="F18">
-        <v>42.19587932223841</v>
+        <v>52.49770071509713</v>
       </c>
       <c r="G18">
-        <v>2.141924147197123</v>
+        <v>3.777034836874415</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.09359163847297</v>
+        <v>11.13700236268716</v>
       </c>
       <c r="K18">
-        <v>15.55313183567452</v>
+        <v>17.33193892637033</v>
       </c>
       <c r="L18">
-        <v>6.055932994570902</v>
+        <v>10.58858485460357</v>
       </c>
       <c r="M18">
-        <v>12.5730943324672</v>
+        <v>18.36850323727928</v>
       </c>
       <c r="N18">
-        <v>18.24291960775147</v>
+        <v>26.35632632145512</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.59115901022881</v>
+        <v>21.1992205120141</v>
       </c>
       <c r="C19">
-        <v>7.577468109797667</v>
+        <v>4.767313635313637</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.292340018392209</v>
+        <v>10.416804643142</v>
       </c>
       <c r="F19">
-        <v>42.11100693495681</v>
+        <v>52.48808293996472</v>
       </c>
       <c r="G19">
-        <v>2.142667920623925</v>
+        <v>3.777276211790932</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.099054608133088</v>
+        <v>11.13802262592934</v>
       </c>
       <c r="K19">
-        <v>15.50029012930688</v>
+        <v>17.32373410908162</v>
       </c>
       <c r="L19">
-        <v>6.04859627201629</v>
+        <v>10.58943856603055</v>
       </c>
       <c r="M19">
-        <v>12.5459576001444</v>
+        <v>18.36753196451239</v>
       </c>
       <c r="N19">
-        <v>18.25018711150635</v>
+        <v>26.35865151218511</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.90374583388298</v>
+        <v>21.25215824140097</v>
       </c>
       <c r="C20">
-        <v>7.731820359150415</v>
+        <v>4.838807600675318</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.303417330063466</v>
+        <v>10.41191155585982</v>
       </c>
       <c r="F20">
-        <v>42.49388966879498</v>
+        <v>52.53196036756076</v>
       </c>
       <c r="G20">
-        <v>2.139326984420344</v>
+        <v>3.77619650918801</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.074469590228419</v>
+        <v>11.13345212461573</v>
       </c>
       <c r="K20">
-        <v>15.73760588326331</v>
+        <v>17.36089070558714</v>
       </c>
       <c r="L20">
-        <v>6.081752361534871</v>
+        <v>10.58569056026422</v>
       </c>
       <c r="M20">
-        <v>12.66821612173388</v>
+        <v>18.37211413819375</v>
       </c>
       <c r="N20">
-        <v>18.21788902294092</v>
+        <v>26.3483109018905</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.93973576989986</v>
+        <v>21.43484124390353</v>
       </c>
       <c r="C21">
-        <v>8.237288790606524</v>
+        <v>5.070912147904008</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.342760586456893</v>
+        <v>10.39652981466721</v>
       </c>
       <c r="F21">
-        <v>43.79672276116315</v>
+        <v>52.68975857322965</v>
       </c>
       <c r="G21">
-        <v>2.128199218478868</v>
+        <v>3.772682459077817</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.991757988080381</v>
+        <v>11.11845861123448</v>
       </c>
       <c r="K21">
-        <v>16.52635293655421</v>
+        <v>17.48974640168074</v>
       </c>
       <c r="L21">
-        <v>6.195570145163685</v>
+        <v>10.57473646737818</v>
       </c>
       <c r="M21">
-        <v>13.08126092643781</v>
+        <v>18.39119633615419</v>
       </c>
       <c r="N21">
-        <v>18.11672853486321</v>
+        <v>26.31572055260373</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.60593122772421</v>
+        <v>21.55767404988936</v>
       </c>
       <c r="C22">
-        <v>8.558246586570666</v>
+        <v>5.216519020651007</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.370108784144807</v>
+        <v>10.38726298440947</v>
       </c>
       <c r="F22">
-        <v>44.66028155956903</v>
+        <v>52.80054472188679</v>
       </c>
       <c r="G22">
-        <v>2.120986426525853</v>
+        <v>3.770470075059638</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.937502804513522</v>
+        <v>11.108928391037</v>
       </c>
       <c r="K22">
-        <v>17.03522806776774</v>
+        <v>17.57685299402205</v>
       </c>
       <c r="L22">
-        <v>6.271722063642621</v>
+        <v>10.56879534169069</v>
       </c>
       <c r="M22">
-        <v>13.35271353936077</v>
+        <v>18.4064002807227</v>
       </c>
       <c r="N22">
-        <v>18.05641163493085</v>
+        <v>26.29602537435127</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.25137666390018</v>
+        <v>21.49181121150105</v>
       </c>
       <c r="C23">
-        <v>8.387778374124156</v>
+        <v>5.139365424529768</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.355359378860394</v>
+        <v>10.39213712352799</v>
       </c>
       <c r="F23">
-        <v>44.19828272486669</v>
+        <v>52.74072076383904</v>
       </c>
       <c r="G23">
-        <v>2.12483140895793</v>
+        <v>3.7716431839045</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.966485864879927</v>
+        <v>11.11399033690411</v>
       </c>
       <c r="K23">
-        <v>16.76424587167391</v>
+        <v>17.53010452796761</v>
       </c>
       <c r="L23">
-        <v>6.230918992049489</v>
+        <v>10.5718550052332</v>
       </c>
       <c r="M23">
-        <v>13.20770710094879</v>
+        <v>18.39803663791976</v>
       </c>
       <c r="N23">
-        <v>18.08805210834573</v>
+        <v>26.30639024507677</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.8866328067181</v>
+        <v>21.24923264038476</v>
       </c>
       <c r="C24">
-        <v>7.723394432267783</v>
+        <v>4.834911854222079</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.302801143949416</v>
+        <v>10.41217627217641</v>
       </c>
       <c r="F24">
-        <v>42.47280134180468</v>
+        <v>52.52951160576082</v>
       </c>
       <c r="G24">
-        <v>2.139510055795445</v>
+        <v>3.776255372847861</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.075819810471998</v>
+        <v>11.13370174633043</v>
       </c>
       <c r="K24">
-        <v>15.72460528068492</v>
+        <v>17.35883489037593</v>
       </c>
       <c r="L24">
-        <v>6.079922391754836</v>
+        <v>10.58589020980143</v>
       </c>
       <c r="M24">
-        <v>12.66149316775318</v>
+        <v>18.37184860107561</v>
       </c>
       <c r="N24">
-        <v>18.21963575959312</v>
+        <v>26.34887066043021</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.36993129348398</v>
+        <v>21.0033133122698</v>
       </c>
       <c r="C25">
-        <v>6.963951948322664</v>
+        <v>4.480703979862984</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.252812147921429</v>
+        <v>10.4371845132972</v>
       </c>
       <c r="F25">
-        <v>40.66468500654783</v>
+        <v>52.33504055719983</v>
       </c>
       <c r="G25">
-        <v>2.155679802098588</v>
+        <v>3.781594819894863</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.193633824199725</v>
+        <v>11.15612769713937</v>
       </c>
       <c r="K25">
-        <v>14.57647007399362</v>
+        <v>17.18714573006268</v>
       </c>
       <c r="L25">
-        <v>5.924874494753966</v>
+        <v>10.60627987068815</v>
       </c>
       <c r="M25">
-        <v>12.08011673064702</v>
+        <v>18.35542650802789</v>
       </c>
       <c r="N25">
-        <v>18.3845030445898</v>
+        <v>26.40158097931081</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_185/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_185/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83674472605432</v>
+        <v>17.21876336711796</v>
       </c>
       <c r="C2">
-        <v>4.198158798761511</v>
+        <v>6.365483532273894</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.4585381436805</v>
+        <v>5.221462506189448</v>
       </c>
       <c r="F2">
-        <v>52.22094292985781</v>
+        <v>39.38107829546873</v>
       </c>
       <c r="G2">
-        <v>3.785843438166472</v>
+        <v>2.167955617404179</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.17365468356914</v>
+        <v>7.281011439067832</v>
       </c>
       <c r="K2">
-        <v>17.07257350073929</v>
+        <v>13.71120975080509</v>
       </c>
       <c r="L2">
-        <v>10.62582993220316</v>
+        <v>5.817711127814207</v>
       </c>
       <c r="M2">
-        <v>18.35358354864752</v>
+        <v>11.66054704938856</v>
       </c>
       <c r="N2">
-        <v>26.44632024975537</v>
+        <v>18.52375092154864</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.73335110595201</v>
+        <v>16.42035254342216</v>
       </c>
       <c r="C3">
-        <v>3.993447111785565</v>
+        <v>5.934314632986009</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.47485507400569</v>
+        <v>5.203490137663572</v>
       </c>
       <c r="F3">
-        <v>52.16192940296906</v>
+        <v>38.54240746094915</v>
       </c>
       <c r="G3">
-        <v>3.788922533938294</v>
+        <v>2.176541739454439</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.1861728118952</v>
+        <v>7.340945567089012</v>
       </c>
       <c r="K3">
-        <v>17.00259390014058</v>
+        <v>13.1148763820562</v>
       </c>
       <c r="L3">
-        <v>10.64191956995989</v>
+        <v>5.749590037866329</v>
       </c>
       <c r="M3">
-        <v>18.35875847176297</v>
+        <v>11.38260590139906</v>
       </c>
       <c r="N3">
-        <v>26.48034135725608</v>
+        <v>18.62845892141952</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.67468479941267</v>
+        <v>15.92259435351143</v>
       </c>
       <c r="C4">
-        <v>3.861381814877599</v>
+        <v>5.656652620569544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.48578777809036</v>
+        <v>5.194031624790062</v>
       </c>
       <c r="F4">
-        <v>52.1347714917972</v>
+        <v>38.04343795180591</v>
       </c>
       <c r="G4">
-        <v>3.790912269377101</v>
+        <v>2.181955930198194</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.1941768528121</v>
+        <v>7.37819543502746</v>
       </c>
       <c r="K4">
-        <v>16.96349212652104</v>
+        <v>12.74493061824976</v>
       </c>
       <c r="L4">
-        <v>10.65320288313991</v>
+        <v>5.710029559436618</v>
       </c>
       <c r="M4">
-        <v>18.36511274066833</v>
+        <v>11.21552036219435</v>
       </c>
       <c r="N4">
-        <v>26.50305678729655</v>
+        <v>18.69761634669898</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.65200868184787</v>
+        <v>15.71812770852938</v>
       </c>
       <c r="C5">
-        <v>3.805990676674718</v>
+        <v>5.540214440672505</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.49047335597363</v>
+        <v>5.190568523576689</v>
       </c>
       <c r="F5">
-        <v>52.12599297994711</v>
+        <v>37.84421165553944</v>
       </c>
       <c r="G5">
-        <v>3.791748124026398</v>
+        <v>2.184199506681978</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.19751879155303</v>
+        <v>7.393501361223384</v>
       </c>
       <c r="K5">
-        <v>16.94854189048558</v>
+        <v>12.59341867222003</v>
       </c>
       <c r="L5">
-        <v>10.65815450678797</v>
+        <v>5.694484554612876</v>
       </c>
       <c r="M5">
-        <v>18.36850216267884</v>
+        <v>11.14839514557331</v>
       </c>
       <c r="N5">
-        <v>26.51277287485996</v>
+        <v>18.72699037449318</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.64831820359602</v>
+        <v>15.68408658505679</v>
       </c>
       <c r="C6">
-        <v>3.796698935162083</v>
+        <v>5.520680297478445</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.49126532562661</v>
+        <v>5.19001696785538</v>
       </c>
       <c r="F6">
-        <v>52.12467369042445</v>
+        <v>37.81138093653613</v>
       </c>
       <c r="G6">
-        <v>3.791888430842258</v>
+        <v>2.184574342071959</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.19807857221283</v>
+        <v>7.396050894730361</v>
       </c>
       <c r="K6">
-        <v>16.94611917295941</v>
+        <v>12.56822088685614</v>
       </c>
       <c r="L6">
-        <v>10.65899808909213</v>
+        <v>5.691938288464738</v>
       </c>
       <c r="M6">
-        <v>18.36911332043462</v>
+        <v>11.1373091721809</v>
       </c>
       <c r="N6">
-        <v>26.51441397185611</v>
+        <v>18.73193901140868</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.67437397331194</v>
+        <v>15.91984304525394</v>
       </c>
       <c r="C7">
-        <v>3.86064111949742</v>
+        <v>5.655095658336888</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.48585003573072</v>
+        <v>5.193983342338691</v>
       </c>
       <c r="F7">
-        <v>52.13464382844851</v>
+        <v>38.04073436751806</v>
       </c>
       <c r="G7">
-        <v>3.790923440579641</v>
+        <v>2.181986035146525</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.1942215981459</v>
+        <v>7.378401327962708</v>
       </c>
       <c r="K7">
-        <v>16.96328650323945</v>
+        <v>12.74289005448802</v>
       </c>
       <c r="L7">
-        <v>10.6532682302094</v>
+        <v>5.709817573240679</v>
       </c>
       <c r="M7">
-        <v>18.36515521109423</v>
+        <v>11.21461109985224</v>
       </c>
       <c r="N7">
-        <v>26.50318596179289</v>
+        <v>18.69800770961792</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.80010685203853</v>
+        <v>16.94518195841872</v>
       </c>
       <c r="C8">
-        <v>4.128912186526559</v>
+        <v>6.21947337547912</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.46397485311246</v>
+        <v>5.21493522686553</v>
       </c>
       <c r="F8">
-        <v>52.19871530908993</v>
+        <v>39.08864297698044</v>
       </c>
       <c r="G8">
-        <v>3.786884582670445</v>
+        <v>2.17088749825794</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.17790514347375</v>
+        <v>7.301591498172409</v>
       </c>
       <c r="K8">
-        <v>17.04764968107812</v>
+        <v>13.50649185613826</v>
       </c>
       <c r="L8">
-        <v>10.63108649283538</v>
+        <v>5.793756699519557</v>
       </c>
       <c r="M8">
-        <v>18.35470928413854</v>
+        <v>11.56401051814968</v>
       </c>
       <c r="N8">
-        <v>26.45767174382084</v>
+        <v>18.55882423101908</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.08396156982583</v>
+        <v>18.88651931938661</v>
       </c>
       <c r="C9">
-        <v>4.603433174476373</v>
+        <v>7.225720680004559</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.42830521406507</v>
+        <v>5.268784479738983</v>
       </c>
       <c r="F9">
-        <v>52.39605449867158</v>
+        <v>41.2665142404451</v>
       </c>
       <c r="G9">
-        <v>3.779747194375705</v>
+        <v>2.150180581545133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.14841674348086</v>
+        <v>7.153895910403641</v>
       </c>
       <c r="K9">
-        <v>17.24317965691139</v>
+        <v>14.96657323421056</v>
       </c>
       <c r="L9">
-        <v>10.59870816646059</v>
+        <v>5.976034307310649</v>
       </c>
       <c r="M9">
-        <v>18.35937104318452</v>
+        <v>12.27476888953246</v>
       </c>
       <c r="N9">
-        <v>26.38290474222401</v>
+        <v>18.32607766513553</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.31388279895832</v>
+        <v>20.26068563546202</v>
       </c>
       <c r="C10">
-        <v>4.919594722430226</v>
+        <v>7.906964363356969</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.40647120552794</v>
+        <v>5.316522958381429</v>
       </c>
       <c r="F10">
-        <v>52.58423565487445</v>
+        <v>42.93702091712773</v>
       </c>
       <c r="G10">
-        <v>3.774975007556282</v>
+        <v>2.135503543004266</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.12826063485535</v>
+        <v>7.046190942574534</v>
       </c>
       <c r="K10">
-        <v>17.40432491106506</v>
+        <v>16.00898529051113</v>
       </c>
       <c r="L10">
-        <v>10.58166860688401</v>
+        <v>6.120302281198279</v>
       </c>
       <c r="M10">
-        <v>18.37803018091802</v>
+        <v>12.80920426607555</v>
       </c>
       <c r="N10">
-        <v>26.33679858265404</v>
+        <v>18.18201931119095</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.42279998331891</v>
+        <v>20.87323557932576</v>
       </c>
       <c r="C11">
-        <v>5.056226007739492</v>
+        <v>8.205091238492072</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.39748065898261</v>
+        <v>5.340117023587354</v>
       </c>
       <c r="F11">
-        <v>52.67908558108323</v>
+        <v>43.71159505461553</v>
       </c>
       <c r="G11">
-        <v>3.772905245426131</v>
+        <v>2.128916520589196</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.11941446675456</v>
+        <v>6.997126623237706</v>
       </c>
       <c r="K11">
-        <v>17.48122606063746</v>
+        <v>16.47562576240836</v>
       </c>
       <c r="L11">
-        <v>10.57537521543269</v>
+        <v>6.188091297112332</v>
       </c>
       <c r="M11">
-        <v>18.38980023915942</v>
+        <v>13.05440500954981</v>
       </c>
       <c r="N11">
-        <v>26.31773884583956</v>
+        <v>18.12295250886339</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.46463701435317</v>
+        <v>21.10332816151718</v>
       </c>
       <c r="C12">
-        <v>5.10692152648318</v>
+        <v>8.316366668406037</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.39421103032875</v>
+        <v>5.349331162180439</v>
       </c>
       <c r="F12">
-        <v>52.71631799541926</v>
+        <v>44.00698159297524</v>
       </c>
       <c r="G12">
-        <v>3.772135932184681</v>
+        <v>2.126432646444198</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.11611077179416</v>
+        <v>6.978515041102986</v>
       </c>
       <c r="K12">
-        <v>17.51084464105358</v>
+        <v>16.65119764063896</v>
       </c>
       <c r="L12">
-        <v>10.57320106509447</v>
+        <v>6.21406486528735</v>
       </c>
       <c r="M12">
-        <v>18.39472638698956</v>
+        <v>13.14751717196121</v>
       </c>
       <c r="N12">
-        <v>26.31079660842172</v>
+        <v>18.10157424234708</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.45560079186616</v>
+        <v>21.05385720822382</v>
       </c>
       <c r="C13">
-        <v>5.096049890085419</v>
+        <v>8.292472239994737</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.39490921244376</v>
+        <v>5.347334130586564</v>
       </c>
       <c r="F13">
-        <v>52.70824110104664</v>
+        <v>43.94327292347136</v>
       </c>
       <c r="G13">
-        <v>3.772300975703293</v>
+        <v>2.126967167450087</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.11682023325587</v>
+        <v>6.982525176878994</v>
       </c>
       <c r="K13">
-        <v>17.50444392620643</v>
+        <v>16.61343602908295</v>
       </c>
       <c r="L13">
-        <v>10.57366002159659</v>
+        <v>6.208457608904745</v>
       </c>
       <c r="M13">
-        <v>18.39364463913926</v>
+        <v>13.12745276790794</v>
       </c>
       <c r="N13">
-        <v>26.31227950045196</v>
+        <v>18.10613343205604</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.42623023986289</v>
+        <v>20.8922030643096</v>
       </c>
       <c r="C14">
-        <v>5.060417724194105</v>
+        <v>8.214277923452881</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.39720896424488</v>
+        <v>5.340869413272601</v>
       </c>
       <c r="F14">
-        <v>52.68212245260258</v>
+        <v>43.73585525800801</v>
       </c>
       <c r="G14">
-        <v>3.772841664213271</v>
+        <v>2.128711975150937</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.11914174634312</v>
+        <v>6.995596212808125</v>
       </c>
       <c r="K14">
-        <v>17.48365293600003</v>
+        <v>16.49009308360308</v>
       </c>
       <c r="L14">
-        <v>10.57519216148374</v>
+        <v>6.190222117759897</v>
       </c>
       <c r="M14">
-        <v>18.39019613266411</v>
+        <v>13.0620603859228</v>
       </c>
       <c r="N14">
-        <v>26.31716218686271</v>
+        <v>18.12117352109425</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.40831619141796</v>
+        <v>20.79294095282051</v>
       </c>
       <c r="C15">
-        <v>5.038455817798059</v>
+        <v>8.16617317752374</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.39863518002711</v>
+        <v>5.336946304623083</v>
       </c>
       <c r="F15">
-        <v>52.66629479328189</v>
+        <v>43.60907522349865</v>
       </c>
       <c r="G15">
-        <v>3.773174732343479</v>
+        <v>2.129782010920498</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.12056974276875</v>
+        <v>7.003597740149847</v>
       </c>
       <c r="K15">
-        <v>17.47098209461943</v>
+        <v>16.41439324569815</v>
       </c>
       <c r="L15">
-        <v>10.57615784245591</v>
+        <v>6.179091653303501</v>
       </c>
       <c r="M15">
-        <v>18.38814482115831</v>
+        <v>13.02203850578777</v>
       </c>
       <c r="N15">
-        <v>26.32018882214009</v>
+        <v>18.13051668420862</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.30684933977117</v>
+        <v>20.2203952723888</v>
       </c>
       <c r="C16">
-        <v>4.910519951167465</v>
+        <v>7.887250326708582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.40707766513961</v>
+        <v>5.315019601066359</v>
       </c>
       <c r="F16">
-        <v>52.57822180832845</v>
+        <v>42.88669194217712</v>
       </c>
       <c r="G16">
-        <v>3.775112299382185</v>
+        <v>2.135935624025461</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.12884522708915</v>
+        <v>7.04939418771237</v>
       </c>
       <c r="K16">
-        <v>17.3993699652056</v>
+        <v>15.9783324188116</v>
       </c>
       <c r="L16">
-        <v>10.58210917977705</v>
+        <v>6.115914939436938</v>
       </c>
       <c r="M16">
-        <v>18.37732678378936</v>
+        <v>12.79321814214545</v>
       </c>
       <c r="N16">
-        <v>26.33808270072514</v>
+        <v>18.18601449559966</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.24568981705479</v>
+        <v>19.86588476460168</v>
       </c>
       <c r="C17">
-        <v>4.830185795365987</v>
+        <v>7.713175057876372</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.41249770267147</v>
+        <v>5.302055576307082</v>
       </c>
       <c r="F17">
-        <v>52.52654986344795</v>
+        <v>42.44725312282623</v>
       </c>
       <c r="G17">
-        <v>3.776326777526106</v>
+        <v>2.13973198640651</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.13400448175493</v>
+        <v>7.077456161713807</v>
       </c>
       <c r="K17">
-        <v>17.35634571388492</v>
+        <v>15.70884448200794</v>
       </c>
       <c r="L17">
-        <v>10.58613311816498</v>
+        <v>6.077705988095628</v>
       </c>
       <c r="M17">
-        <v>18.37152891634504</v>
+        <v>12.65334673944878</v>
       </c>
       <c r="N17">
-        <v>26.34955029379727</v>
+        <v>18.2217568502585</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.21092139253827</v>
+        <v>19.66079827148715</v>
       </c>
       <c r="C18">
-        <v>4.783303159364151</v>
+        <v>7.611938422040626</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.41570384901737</v>
+        <v>5.29477509312928</v>
       </c>
       <c r="F18">
-        <v>52.49770071509713</v>
+        <v>42.19587932223834</v>
       </c>
       <c r="G18">
-        <v>3.777034836874415</v>
+        <v>2.14192414719686</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.13700236268716</v>
+        <v>7.093591638472875</v>
       </c>
       <c r="K18">
-        <v>17.33193892637033</v>
+        <v>15.55313183567452</v>
       </c>
       <c r="L18">
-        <v>10.58858485460357</v>
+        <v>6.055932994570935</v>
       </c>
       <c r="M18">
-        <v>18.36850323727928</v>
+        <v>12.57309433246718</v>
       </c>
       <c r="N18">
-        <v>26.35632632145512</v>
+        <v>18.24291960775142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.1992205120141</v>
+        <v>19.59115901022877</v>
       </c>
       <c r="C19">
-        <v>4.767313635313637</v>
+        <v>7.577468109797623</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.416804643142</v>
+        <v>5.292340018392275</v>
       </c>
       <c r="F19">
-        <v>52.48808293996472</v>
+        <v>42.11100693495678</v>
       </c>
       <c r="G19">
-        <v>3.777276211790932</v>
+        <v>2.142667920624188</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.13802262592934</v>
+        <v>7.099054608132989</v>
       </c>
       <c r="K19">
-        <v>17.32373410908162</v>
+        <v>15.50029012930687</v>
       </c>
       <c r="L19">
-        <v>10.58943856603055</v>
+        <v>6.048596272016336</v>
       </c>
       <c r="M19">
-        <v>18.36753196451239</v>
+        <v>12.54595760014439</v>
       </c>
       <c r="N19">
-        <v>26.35865151218511</v>
+        <v>18.25018711150626</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.25215824140097</v>
+        <v>19.90374583388299</v>
       </c>
       <c r="C20">
-        <v>4.838807600675318</v>
+        <v>7.731820359150316</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.41191155585982</v>
+        <v>5.303417330063582</v>
       </c>
       <c r="F20">
-        <v>52.53196036756076</v>
+        <v>42.49388966879508</v>
       </c>
       <c r="G20">
-        <v>3.77619650918801</v>
+        <v>2.13932698441994</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.13345212461573</v>
+        <v>7.074469590228416</v>
       </c>
       <c r="K20">
-        <v>17.36089070558714</v>
+        <v>15.73760588326332</v>
       </c>
       <c r="L20">
-        <v>10.58569056026422</v>
+        <v>6.081752361534934</v>
       </c>
       <c r="M20">
-        <v>18.37211413819375</v>
+        <v>12.66821612173392</v>
       </c>
       <c r="N20">
-        <v>26.3483109018905</v>
+        <v>18.21788902294099</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.43484124390353</v>
+        <v>20.93973576989985</v>
       </c>
       <c r="C21">
-        <v>5.070912147904008</v>
+        <v>8.237288790606522</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.39652981466721</v>
+        <v>5.342760586457049</v>
       </c>
       <c r="F21">
-        <v>52.68975857322965</v>
+        <v>43.7967227611632</v>
       </c>
       <c r="G21">
-        <v>3.772682459077817</v>
+        <v>2.128199218478999</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.11845861123448</v>
+        <v>6.991757988080383</v>
       </c>
       <c r="K21">
-        <v>17.48974640168074</v>
+        <v>16.52635293655421</v>
       </c>
       <c r="L21">
-        <v>10.57473646737818</v>
+        <v>6.19557014516376</v>
       </c>
       <c r="M21">
-        <v>18.39119633615419</v>
+        <v>13.08126092643784</v>
       </c>
       <c r="N21">
-        <v>26.31572055260373</v>
+        <v>18.11672853486321</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.55767404988936</v>
+        <v>21.6059312277242</v>
       </c>
       <c r="C22">
-        <v>5.216519020651007</v>
+        <v>8.55824658657083</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.38726298440947</v>
+        <v>5.370108784144975</v>
       </c>
       <c r="F22">
-        <v>52.80054472188679</v>
+        <v>44.66028155956912</v>
       </c>
       <c r="G22">
-        <v>3.770470075059638</v>
+        <v>2.120986426526119</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.108928391037</v>
+        <v>6.937502804513585</v>
       </c>
       <c r="K22">
-        <v>17.57685299402205</v>
+        <v>17.03522806776774</v>
       </c>
       <c r="L22">
-        <v>10.56879534169069</v>
+        <v>6.271722063642635</v>
       </c>
       <c r="M22">
-        <v>18.4064002807227</v>
+        <v>13.35271353936081</v>
       </c>
       <c r="N22">
-        <v>26.29602537435127</v>
+        <v>18.05641163493093</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.49181121150105</v>
+        <v>21.25137666390017</v>
       </c>
       <c r="C23">
-        <v>5.139365424529768</v>
+        <v>8.387778374124242</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.39213712352799</v>
+        <v>5.355359378860454</v>
       </c>
       <c r="F23">
-        <v>52.74072076383904</v>
+        <v>44.19828272486657</v>
       </c>
       <c r="G23">
-        <v>3.7716431839045</v>
+        <v>2.124831408958057</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.11399033690411</v>
+        <v>6.966485864879929</v>
       </c>
       <c r="K23">
-        <v>17.53010452796761</v>
+        <v>16.76424587167392</v>
       </c>
       <c r="L23">
-        <v>10.5718550052332</v>
+        <v>6.230918992049488</v>
       </c>
       <c r="M23">
-        <v>18.39803663791976</v>
+        <v>13.20770710094879</v>
       </c>
       <c r="N23">
-        <v>26.30639024507677</v>
+        <v>18.08805210834564</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.24923264038476</v>
+        <v>19.8866328067181</v>
       </c>
       <c r="C24">
-        <v>4.834911854222079</v>
+        <v>7.72339443226771</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.41217627217641</v>
+        <v>5.302801143949367</v>
       </c>
       <c r="F24">
-        <v>52.52951160576082</v>
+        <v>42.47280134180464</v>
       </c>
       <c r="G24">
-        <v>3.776255372847861</v>
+        <v>2.13951005579558</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.13370174633043</v>
+        <v>7.075819810471967</v>
       </c>
       <c r="K24">
-        <v>17.35883489037593</v>
+        <v>15.72460528068492</v>
       </c>
       <c r="L24">
-        <v>10.58589020980143</v>
+        <v>6.079922391754794</v>
       </c>
       <c r="M24">
-        <v>18.37184860107561</v>
+        <v>12.66149316775316</v>
       </c>
       <c r="N24">
-        <v>26.34887066043021</v>
+        <v>18.21963575959307</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.0033133122698</v>
+        <v>18.369931293484</v>
       </c>
       <c r="C25">
-        <v>4.480703979862984</v>
+        <v>6.963951948322523</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.4371845132972</v>
+        <v>5.252812147921366</v>
       </c>
       <c r="F25">
-        <v>52.33504055719983</v>
+        <v>40.66468500654792</v>
       </c>
       <c r="G25">
-        <v>3.781594819894863</v>
+        <v>2.155679802098719</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.15612769713937</v>
+        <v>7.19363382419972</v>
       </c>
       <c r="K25">
-        <v>17.18714573006268</v>
+        <v>14.57647007399367</v>
       </c>
       <c r="L25">
-        <v>10.60627987068815</v>
+        <v>5.92487449475396</v>
       </c>
       <c r="M25">
-        <v>18.35542650802789</v>
+        <v>12.08011673064707</v>
       </c>
       <c r="N25">
-        <v>26.40158097931081</v>
+        <v>18.38450304458978</v>
       </c>
       <c r="O25">
         <v>0</v>
